--- a/Työaikakirjanpidot/Työaikakirjanpito_v.1.0.xlsx
+++ b/Työaikakirjanpidot/Työaikakirjanpito_v.1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21006"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://haagahelia-my.sharepoint.com/personal/a1602670_myy_haaga-helia_fi/Documents/Monialaprojekti/Työaikakirjanpidot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_4A30F82910C3A3F25997DA61E89F4E41B599D684" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{5EEBCD44-5108-4C65-BC1E-26C0A114E274}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_4A30F82910C3A3F25997DA61E89F4E41B599D684" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{6F9D1A2C-4CA5-4757-BD42-A979F70F9B3A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,11 @@
   </definedNames>
   <calcPr calcId="179020" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Projekti/asiakas:</t>
   </si>
@@ -188,16 +193,58 @@
     <t>Projektin aloituskokous sekä projektisuunnitelman viimeistely.</t>
   </si>
   <si>
+    <t>Lisätty ja parannettu IdM:n vaatimuksia, etsitty tietoa kuinka suosittuja IdM-järjestelmät ovat olleet GitHubissa, katsottu löytyykö lisäksi IdM-järjestelmistä opinnäytetöitä ja mitä referenssejä IdM-järjestelmillä on.</t>
+  </si>
+  <si>
+    <t>Parannettu palautteiden perusteella IdM:n vaatimustenmäärityksiä sekä etsitty linsessitiedot kaikista IdM-järjestelmistä.</t>
+  </si>
+  <si>
+    <t>1.10.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdM-järjestelmien raporttien luontimahdollisuuksien, arttikkeleiden lukumäärän, Google Scholarin tulosten lukumäärien lisäys vertailulistaan. IdM-järjestelmäehdokkaan valinta. Ohjauspiste 1. </t>
+  </si>
+  <si>
     <t>19.9.2018</t>
   </si>
   <si>
     <t>Teron kanssa kokous ja siihen liittyvien asioiden hoito. IdM-järjestelmien vaatimustenmääritysten kirjaamista.</t>
   </si>
   <si>
-    <t>Lisätty ja parannettu IdM:n vaatimuksia, etsitty tietoa kuinka suosittuja IdM-järjestelmät ovat olleet GitHubissa, katsottu löytyykö lisäksi IdM-järjestelmistä opinnäytetöitä ja mitä referenssejä IdM-järjestelmillä on.</t>
-  </si>
-  <si>
-    <t>Parannettu palautteiden perusteella IdM:n vaatimustenmäärityksiä sekä etsitty linsessitiedot kaikista IdM-järjestelmistä.</t>
+    <t>26.9.2018</t>
+  </si>
+  <si>
+    <t>Palaveri Teron kanssa, palaverissa kirjurina toimiminen. Siirretty ja käännetty suurin osa projektin julkisista materiaaleista GitHubiin. Tehty vertailun yhteenvetotaulukko Excelissä. </t>
+  </si>
+  <si>
+    <t>28.9.2018</t>
+  </si>
+  <si>
+    <t>Idm-järjestelmäehdokkaiden rajapintojen sekä tuettujen palveluiden selvittely, näiden kommentiunti ja lisäys Excel-vertailulistaan. GutHub -statistiikan, opinnäytetöiden kappalemäärän sekä järjestelmälisenssien listaus vertailulistaan. IdM-Järjestelmäehdokkaiden Governance, avoimeen lähdekoodiin, ilmaisuuden, salasanojen hallinnan sekä toimeksiantojen hyväksymismahdollisuuksien selvitys Excel-listaan.</t>
+  </si>
+  <si>
+    <t>Loput vertailtavien vaatimusten tutkiminen (Raporttien luonti, Google Scholars -statistiikka sekä Julkaistujen artikkelien statistiikka) IdM-demojen kokeilu ja järjestelmän lopullinen valinta.</t>
+  </si>
+  <si>
+    <t>3.10.2018</t>
+  </si>
+  <si>
+    <t>Kokous Teron kanssa, nettisivujen päivittämistä sekä sinne materiaalien lisäystä.</t>
+  </si>
+  <si>
+    <t>5.10.2018</t>
+  </si>
+  <si>
+    <t>Ubuntu Serverin asennus sekä IdM-järjestelmän asennusyritys tuotantoympäristöön (asennus epäonnistui)</t>
+  </si>
+  <si>
+    <t>7.10.2018</t>
+  </si>
+  <si>
+    <t>Ubuntu Serverin asennus sekä IdM-järjestelmän asennusyritys testiympäristöön (asennus onnistui)</t>
+  </si>
+  <si>
+    <t>Ubuntu Serverin asennus sekä IdM-järjestelmän asennusyritys tuotantoympäristöön (asennus onnistui ehdollisena)</t>
   </si>
   <si>
     <t>Aloitusklo (xx:xx)</t>
@@ -224,7 +271,27 @@
     <t>IdM-järjestelmien vertailu: lisenssit. Etsitty avoimen lähdekoodin IdM-järjestelmien (Unity, OpenIAM, Shibboleth, WSO2 Identity Server, Gluu, Josso, FreeIPA, Aerobase, Grouper)  lisenssejä. Käytetty aikaa 2h. Tulokset kirjattu projektien jäsenten yhteiseen OneDriveen ja OneNoteen. https://haagahelia-my.sharepoint.com/:t:/g/personal/a1602670_myy_haaga-helia_fi/Ec2Ql4INJf9GmVxAR0hhLhoBxEXwCYKd281yXZpGSsUugg?e=hAAvFB</t>
   </si>
   <si>
-    <t>26.9.2018</t>
+    <t>Kokous ryhmän jäsenten ja Tero Karvisen kanssa, kesto 30min. Kirjasin vaatimukset WordPressin (30min). Siirsin osan muistiinpanotiedostojani GitHubiin ja vertailin Google Trendsin avulla IdM-järjestelmiä (4h). Keskenään vertailin aluksi ryhmittäin ja lopuksi vertailin ryhmien suosituimmat IdM-järjestelmät keskenään. Lisäsin tulokset WordPressiin ja GitHubiin (30min).</t>
+  </si>
+  <si>
+    <t>Vertailin 9 eri vaatimusta kustakin IdM-järjestelmästä. Lisättiin vertailun tulokset Excel-taulukkoon. Aloitin Google Trendsin vertailulla, suosituimpana järjestelmänä oli Keycloak, vähiten suosituin oli Grouper.
+Lisäsin vertailutaulukkoon Google Trendsin, kirjojen ja referenssien osalta tiedot, joita olimme listanneet GitHubiin (45min).
+Lähdin seuraavaksi hakemaan tietoa IdM-järjestelmistä vaatimusten mukaan. Aikaa kului 5h 30min. Vertailun tulokset löytyvät osoitteesta: https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Markuksen%20muistiinpanoja/tuntikirjanpito_28.9.18.txt</t>
+  </si>
+  <si>
+    <t>Kävin läpi yhtä vaatimusta: soveltuuko IdM-järjestelmä suuriin yrityksiin. Tulokset kirjattu Excel-vertailutaulukkoon (1h 15min). Karsimme seuraavaksi ehdokkaita. Lisätietoa millä perusteilla karsimme ehdokkaita sekä Excel-vertailutaulukon linkki löytyy täältä: https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Markuksen%20muistiinpanoja/tuntikirjanpito_1.10.18.txt</t>
+  </si>
+  <si>
+    <t>Kokous Teron kanssa. Kokouksessa tuli selville, että Google Scholars -luvut tulisi tarkistuttaa vielä uudestaan, että ne oikeasti täsmäävät. Kokouksen kesto 30min. Tarkistutin Google Scholar tulokset vielä kertaalleen ja lisäsin tulokset vertailutaulukkoon (1h). Tarkemmat kriteerit Google Scholar tuloksiin löytyvät vertailutaulukosta. Kirjoitin seuraavaksi blogipostauksen vaatimuksista, joita tein (4h): https://opensourceidm.wordpress.com/2018/10/03/avoimen-lahdekoodin-idm-jarjestelman-vertailu-3/</t>
+  </si>
+  <si>
+    <t>Ubuntu Server 16.04 asennus. Imitoin serverin asennusta VirtualBoxilla kuvankaappauksia ja testausta varten (30min). Lähdin seuraavaksi kokeilemaan midPointin demoa (30min). Seuraavaksi asennettiin midPointtia Ubuntu Serverille, mutta emme saaneet sitä toimimaan selaimen kautta lukuisten yritysten jälkeen (3h). Lisätietoa: https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Markuksen%20muistiinpanoja/tuntikirjanpito_5.10.18.txt</t>
+  </si>
+  <si>
+    <t>8.10.2018</t>
+  </si>
+  <si>
+    <t>MidPointin asennus uudestaan Servulan fyysiselle koneelle, tällä kertaa onnistuneesti (30min). Seuraaaksi lähdin asentamaan Linux-työasemaa (Ubuntu Desktop 16.04 LTS) testausta varten. Asetin virtuaalikoneelle 4 GB RAM-muistia ja tallennustilaa 30 GB (30min). Palvelimelle asennettiin seuraavaksi Java JCE (1h). Lisätietoa: https://github.com/Eetu95/Open-source-IdM-solution/blob/master/Markuksen%20muistiinpanoja/tuntikirjanpito_8.10.18.txt</t>
   </si>
 </sst>
 </file>
@@ -421,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +600,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -727,7 +797,18 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:G36" totalsRowShown="0">
-  <autoFilter ref="A7:G36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A7:G36" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="26.9.2018"/>
+        <filter val="28.9.2018"/>
+        <dateGroupItem year="2018" month="9" day="24" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A8:G36">
+    <sortCondition ref="A7:A36"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pvm"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Aloitus klo (xx:xx)"/>
@@ -1076,7 +1157,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,11 +1178,11 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
@@ -1109,11 +1190,11 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
@@ -1121,11 +1202,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
@@ -1135,7 +1216,7 @@
       </c>
       <c r="C4" s="7">
         <f>$B$10</f>
-        <v>1.429861111111111</v>
+        <v>4.4243055555555557</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1173,7 +1254,7 @@
       </c>
       <c r="B8" s="15">
         <f>'Jan Parttimaa'!C5</f>
-        <v>0.71250000000000013</v>
+        <v>2.0576388888888886</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1183,7 +1264,7 @@
       </c>
       <c r="B9" s="15">
         <f>'Markus Nissinen'!$C$5</f>
-        <v>0.18819444444444428</v>
+        <v>1.8374999999999999</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1193,7 +1274,7 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(B7:B9)</f>
-        <v>1.429861111111111</v>
+        <v>4.4243055555555557</v>
       </c>
     </row>
   </sheetData>
@@ -1225,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1246,44 +1327,44 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2"/>
@@ -1292,7 +1373,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D36)</f>
-        <v>0.71250000000000013</v>
+        <v>2.0576388888888886</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1320,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" hidden="1">
       <c r="A8" s="24">
         <v>43360</v>
       </c>
@@ -1331,7 +1412,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D8" s="26">
-        <f t="shared" ref="D8:D26" si="0">C8-B8</f>
+        <f>C8-B8</f>
         <v>9.375E-2</v>
       </c>
       <c r="E8" s="29">
@@ -1342,63 +1423,63 @@
       </c>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="24" t="s">
-        <v>23</v>
+    <row r="9" spans="1:7" ht="60" hidden="1">
+      <c r="A9" s="24">
+        <v>43364</v>
       </c>
       <c r="B9" s="25">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C9" s="25">
-        <v>0.6777777777777777</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" si="0"/>
-        <v>0.1777777777777777</v>
+        <f>C9-B9</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="24">
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="B10" s="25">
-        <v>0.33333333333333331</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="C10" s="25">
-        <v>0.66666666666666663</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="D10" s="26">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>C10-B10</f>
+        <v>0.10763888888888906</v>
       </c>
       <c r="E10" s="29">
         <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" hidden="1">
+      <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" ht="45">
-      <c r="A11" s="24">
-        <v>43367</v>
-      </c>
       <c r="B11" s="25">
-        <v>0.71180555555555547</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C11" s="25">
-        <v>0.81944444444444453</v>
+        <v>0.8125</v>
       </c>
       <c r="D11" s="26">
-        <f t="shared" si="0"/>
-        <v>0.10763888888888906</v>
+        <f>C11-B11</f>
+        <v>0.14583333333333337</v>
       </c>
       <c r="E11" s="29">
         <v>1</v>
@@ -1408,100 +1489,180 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="1:7" ht="30" hidden="1">
+      <c r="A12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.6777777777777777</v>
+      </c>
       <c r="D12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
+        <f>C12-B12</f>
+        <v>0.1777777777777777</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+    <row r="13" spans="1:7" ht="60">
+      <c r="A13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
+        <f>C13-B13</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+    <row r="14" spans="1:7" ht="120">
+      <c r="A14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.625</v>
+      </c>
       <c r="D14" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
+        <f>C14-B14</f>
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+    <row r="15" spans="1:7" ht="60">
+      <c r="A15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.8125</v>
+      </c>
       <c r="D15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27"/>
+        <f>C15-B15</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
+        <f>C16-B16</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="D17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
+        <f>C17-B17</f>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.59375</v>
+      </c>
       <c r="D18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27"/>
+        <f>C18-B18</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+    <row r="19" spans="1:7" ht="45">
+      <c r="A19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.6333333333333333</v>
+      </c>
       <c r="D19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27"/>
+        <f>C19-B19</f>
+        <v>3.8888888888888862E-2</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
@@ -1509,7 +1670,7 @@
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26">
-        <f t="shared" si="0"/>
+        <f>C20-B20</f>
         <v>0</v>
       </c>
       <c r="E20" s="29"/>
@@ -1521,7 +1682,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26">
-        <f t="shared" si="0"/>
+        <f>C21-B21</f>
         <v>0</v>
       </c>
       <c r="E21" s="29"/>
@@ -1533,7 +1694,7 @@
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26">
-        <f t="shared" si="0"/>
+        <f>C22-B22</f>
         <v>0</v>
       </c>
       <c r="E22" s="29"/>
@@ -1545,7 +1706,7 @@
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26">
-        <f t="shared" si="0"/>
+        <f>C23-B23</f>
         <v>0</v>
       </c>
       <c r="E23" s="29"/>
@@ -1557,7 +1718,7 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="26">
-        <f t="shared" si="0"/>
+        <f>C24-B24</f>
         <v>0</v>
       </c>
       <c r="E24" s="29"/>
@@ -1569,7 +1730,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26">
-        <f t="shared" si="0"/>
+        <f>C25-B25</f>
         <v>0</v>
       </c>
       <c r="E25" s="29"/>
@@ -1581,7 +1742,7 @@
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26">
-        <f t="shared" si="0"/>
+        <f>C26-B26</f>
         <v>0</v>
       </c>
       <c r="E26" s="29"/>
@@ -1602,7 +1763,7 @@
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26">
-        <f t="shared" ref="D28:D36" si="1">C28-B28</f>
+        <f>C28-B28</f>
         <v>0</v>
       </c>
       <c r="E28" s="29"/>
@@ -1614,7 +1775,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26">
-        <f t="shared" si="1"/>
+        <f>C29-B29</f>
         <v>0</v>
       </c>
       <c r="E29" s="29"/>
@@ -1626,7 +1787,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26">
-        <f t="shared" si="1"/>
+        <f>C30-B30</f>
         <v>0</v>
       </c>
       <c r="E30" s="29"/>
@@ -1638,7 +1799,7 @@
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26">
-        <f t="shared" si="1"/>
+        <f>C31-B31</f>
         <v>0</v>
       </c>
       <c r="E31" s="29"/>
@@ -1650,7 +1811,7 @@
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26">
-        <f t="shared" si="1"/>
+        <f>C32-B32</f>
         <v>0</v>
       </c>
       <c r="E32" s="29"/>
@@ -1662,7 +1823,7 @@
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26">
-        <f t="shared" si="1"/>
+        <f>C33-B33</f>
         <v>0</v>
       </c>
       <c r="E33" s="29"/>
@@ -1674,7 +1835,7 @@
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26">
-        <f t="shared" si="1"/>
+        <f>C34-B34</f>
         <v>0</v>
       </c>
       <c r="E34" s="29"/>
@@ -1686,7 +1847,7 @@
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="26">
-        <f t="shared" si="1"/>
+        <f>C35-B35</f>
         <v>0</v>
       </c>
       <c r="E35" s="29"/>
@@ -1698,7 +1859,7 @@
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26">
-        <f t="shared" si="1"/>
+        <f>C36-B36</f>
         <v>0</v>
       </c>
       <c r="E36" s="29"/>
@@ -1732,7 +1893,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1753,11 +1914,11 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7">
@@ -1765,11 +1926,11 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7">
@@ -1777,11 +1938,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7">
@@ -1789,11 +1950,11 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7">
@@ -1822,10 +1983,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>18</v>
@@ -1864,7 +2025,7 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="25">
         <v>0.5</v>
@@ -1880,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" s="27"/>
     </row>
@@ -2249,8 +2410,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2270,11 +2431,11 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7">
@@ -2282,11 +2443,11 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7">
@@ -2294,11 +2455,11 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7">
@@ -2306,11 +2467,11 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7">
@@ -2320,7 +2481,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(D8:D42)</f>
-        <v>0.18819444444444428</v>
+        <v>1.8374999999999999</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -2339,10 +2500,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>18</v>
@@ -2375,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" spans="1:7" ht="120">
+    <row r="9" spans="1:7" ht="105">
       <c r="A9" s="24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="25">
         <v>0.5</v>
@@ -2397,13 +2558,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="165">
       <c r="A10" s="28" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B10" s="25">
         <v>0.375</v>
@@ -2419,13 +2580,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="120">
+    <row r="11" spans="1:7" ht="135">
       <c r="A11" s="24" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B11" s="25">
         <v>0.71875</v>
@@ -2441,74 +2602,140 @@
         <v>1</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="105">
       <c r="A12" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" s="25">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="25">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="D12" s="26">
         <f t="shared" si="0"/>
-        <v>-0.47916666666666669</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+    <row r="13" spans="1:7" ht="195">
+      <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="D13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
+        <v>0.26388888888888895</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
+    <row r="14" spans="1:7" ht="120">
+      <c r="A14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.8125</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27"/>
+    <row r="15" spans="1:7" ht="135">
+      <c r="A15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="0"/>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
+    <row r="16" spans="1:7" ht="135">
+      <c r="A16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
+    <row r="17" spans="1:7" ht="150">
+      <c r="A17" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.71875</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7">
